--- a/documents/Model Analysis.xlsx
+++ b/documents/Model Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/es1519_ic_ac_uk/Documents/Imperial Work/4th Year/70016 Natural Language Processing/Coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{B33522A9-8D17-43D8-A1F1-44AA038B3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7CBA65-69C5-4F23-A6BF-6D01A7AEBBEE}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{B33522A9-8D17-43D8-A1F1-44AA038B3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18562E65-98EF-4934-8150-D59D64818B44}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5190" windowWidth="29040" windowHeight="16440" xr2:uid="{84FFAC28-1976-454A-8E74-5765001F3EEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -100,6 +100,18 @@
   <si>
     <t>Min Val Loss</t>
   </si>
+  <si>
+    <t>LR=1e-4</t>
+  </si>
+  <si>
+    <t>LR=1e-5</t>
+  </si>
+  <si>
+    <t>LR=3e-4</t>
+  </si>
+  <si>
+    <t>Data Augmentation</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +167,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -193,6 +215,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -268,11 +340,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -288,11 +360,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -343,366 +425,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -837,65 +559,83 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>LR=1e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Linear Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>RobertaTokenizer</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>RobertaTokenizerFast</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Const Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Ada Factor LR</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Cosine Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Cosine Hard Reset LR</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>LR=1e-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Bert-Base-Cased</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LR=3e-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$9</c:f>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.59799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.58799999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.57699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,65 +675,83 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>LR=1e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Linear Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>RobertaTokenizer</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>RobertaTokenizerFast</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Const Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Ada Factor LR</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Cosine Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Cosine Hard Reset LR</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>LR=1e-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Bert-Base-Cased</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LR=3e-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$9</c:f>
+              <c:f>Sheet1!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.58499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,65 +791,83 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>LR=1e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Linear Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>RobertaTokenizer</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>RobertaTokenizerFast</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Const Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Ada Factor LR</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Cosine Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Cosine Hard Reset LR</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>LR=1e-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Bert-Base-Cased</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LR=3e-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$9</c:f>
+              <c:f>Sheet1!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.59099999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.68500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.51400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,65 +907,83 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>LR=1e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Linear Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>RobertaTokenizer</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>RobertaTokenizerFast</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Const Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Ada Factor LR</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Cosine Warmup LR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Cosine Hard Reset LR</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>LR=1e-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Bert-Base-Cased</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LR=3e-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$9</c:f>
+              <c:f>Sheet1!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.93300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.92800000000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.91300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,6 +1794,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2299,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A513A-0028-4715-8309-8DC8048BEFBF}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,7 +2158,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2372,25 +2170,25 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>70000</v>
+        <v>70010</v>
       </c>
       <c r="F2">
-        <v>0.37129000000000001</v>
+        <v>0.48531000000000002</v>
       </c>
       <c r="G2">
-        <v>0.22650999999999999</v>
+        <v>0.30363000000000001</v>
       </c>
       <c r="H2">
-        <v>0.59799999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I2">
-        <v>0.623</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="J2">
-        <v>0.57499999999999996</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="K2">
-        <v>0.93300000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -2398,45 +2196,45 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>70000</v>
+      </c>
+      <c r="F3">
+        <v>0.37129000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.22650999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.623</v>
+      </c>
+      <c r="J3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L3">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>69896</v>
-      </c>
-      <c r="F3">
-        <v>0.26912999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.26822000000000001</v>
-      </c>
-      <c r="H3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="I3">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="J3">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2448,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>69931</v>
+        <v>69896</v>
       </c>
       <c r="F4">
         <v>0.26912999999999998</v>
@@ -2474,7 +2272,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -2486,33 +2284,33 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>69996</v>
+        <v>69931</v>
       </c>
       <c r="F5">
-        <v>0.46259</v>
+        <v>0.26912999999999998</v>
       </c>
       <c r="G5">
-        <v>0.22650999999999999</v>
+        <v>0.26822000000000001</v>
       </c>
       <c r="H5">
-        <v>0.58799999999999997</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="I5">
-        <v>0.58499999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="J5">
-        <v>0.59099999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="K5">
-        <v>0.92800000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -2524,33 +2322,33 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>69951</v>
+        <v>69996</v>
       </c>
       <c r="F6">
-        <v>0.28774</v>
+        <v>0.46259</v>
       </c>
       <c r="G6">
-        <v>0.22917000000000001</v>
+        <v>0.22650999999999999</v>
       </c>
       <c r="H6">
-        <v>0.57699999999999996</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I6">
-        <v>0.498</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J6">
-        <v>0.68500000000000005</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="K6">
-        <v>0.91300000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -2562,33 +2360,33 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>69999</v>
+        <v>69951</v>
       </c>
       <c r="F7">
-        <v>0.35693000000000003</v>
+        <v>0.28774</v>
       </c>
       <c r="G7">
-        <v>0.22650999999999999</v>
+        <v>0.22917000000000001</v>
       </c>
       <c r="H7">
-        <v>0.57099999999999995</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="I7">
-        <v>0.64100000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="J7">
-        <v>0.51400000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="K7">
-        <v>0.93300000000000005</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -2600,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>70003</v>
+        <v>69999</v>
       </c>
       <c r="F8">
         <v>0.35693000000000003</v>
@@ -2626,85 +2424,297 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>70003</v>
+      </c>
+      <c r="F9">
+        <v>0.35693000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.22650999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>70009</v>
+      </c>
+      <c r="F10">
+        <v>0.35441</v>
+      </c>
+      <c r="G10">
+        <v>0.22470999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
         <v>69942</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.53634999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>0.40964</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>0.29899999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>0.20200000000000001</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>0.57499999999999996</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>0.76700000000000002</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>70011</v>
+      </c>
+      <c r="F12">
+        <v>0.78061999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.159</v>
+      </c>
+      <c r="I12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>70019</v>
+      </c>
+      <c r="F13">
+        <v>0.27915000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J13">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.91</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
-    <sortCondition descending="1" ref="H2:H9"/>
-    <sortCondition ref="E2:E9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
+    <sortCondition descending="1" ref="H2:H12"/>
+    <sortCondition ref="E2:E12"/>
   </sortState>
   <conditionalFormatting sqref="B2:D9">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D9">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F9">
-    <cfRule type="top10" dxfId="26" priority="16" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="25" priority="10" rank="1"/>
+  <conditionalFormatting sqref="F1:F13">
+    <cfRule type="top10" dxfId="23" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="22" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H9">
-    <cfRule type="top10" dxfId="6" priority="14" rank="1"/>
-    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="H1:H13">
+    <cfRule type="top10" dxfId="21" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G9">
-    <cfRule type="top10" dxfId="21" priority="8" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="9" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="G1:G13">
+    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I9">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+  <conditionalFormatting sqref="I1:I13">
+    <cfRule type="top10" dxfId="17" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="18" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J9">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+  <conditionalFormatting sqref="J1:J13">
+    <cfRule type="top10" dxfId="15" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K9">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  <conditionalFormatting sqref="K1:K13">
+    <cfRule type="top10" dxfId="13" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D13">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D13">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
